--- a/Dashboards-test/Tracked Player.xlsx
+++ b/Dashboards-test/Tracked Player.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$76</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$74</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$76</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$74</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$76</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$76</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$74</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$74</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -64,31 +64,31 @@
     <x:t>fethi</x:t>
   </x:si>
   <x:si>
+    <x:t>gag123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hendrik</x:t>
+  </x:si>
+  <x:si>
     <x:t>RICO</x:t>
   </x:si>
   <x:si>
-    <x:t>Hendrik</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gag123</x:t>
-  </x:si>
-  <x:si>
     <x:t>JCREX</x:t>
   </x:si>
   <x:si>
-    <x:t>palches</x:t>
-  </x:si>
-  <x:si>
     <x:t>Geyyyy</x:t>
   </x:si>
   <x:si>
     <x:t>TheSniperDuo</x:t>
   </x:si>
   <x:si>
+    <x:t>nOtelite</x:t>
+  </x:si>
+  <x:si>
     <x:t>EPiccc</x:t>
   </x:si>
   <x:si>
-    <x:t>nOtelite</x:t>
+    <x:t>James edward</x:t>
   </x:si>
   <x:si>
     <x:t>slg jujudark</x:t>
@@ -97,42 +97,42 @@
     <x:t>oof boi</x:t>
   </x:si>
   <x:si>
-    <x:t>James edward</x:t>
-  </x:si>
-  <x:si>
     <x:t>Denooo</x:t>
   </x:si>
   <x:si>
+    <x:t>le7</x:t>
+  </x:si>
+  <x:si>
     <x:t>PoopyDoopy</x:t>
   </x:si>
   <x:si>
-    <x:t>le7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Idol</x:t>
   </x:si>
   <x:si>
     <x:t>Colonial</x:t>
   </x:si>
   <x:si>
-    <x:t>Keep Killing It</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jayden_funeez</x:t>
   </x:si>
   <x:si>
     <x:t>Garga</x:t>
   </x:si>
   <x:si>
+    <x:t>XXHyperGamerXX</x:t>
+  </x:si>
+  <x:si>
     <x:t>atuka</x:t>
   </x:si>
   <x:si>
-    <x:t>XXHyperGamerXX</x:t>
+    <x:t>Jupiter</x:t>
   </x:si>
   <x:si>
     <x:t>Atom</x:t>
   </x:si>
   <x:si>
+    <x:t>Magpie</x:t>
+  </x:si>
+  <x:si>
     <x:t>Your final</x:t>
   </x:si>
   <x:si>
@@ -145,87 +145,81 @@
     <x:t>lopik</x:t>
   </x:si>
   <x:si>
+    <x:t>lionclaw</x:t>
+  </x:si>
+  <x:si>
     <x:t>GabGaming Pro38</x:t>
   </x:si>
   <x:si>
+    <x:t>boriin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruben123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mg123ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JokiPau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magic_exe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>temp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bow and arrow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HD Gamer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lubiniio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cidar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fleur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sub-zero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORDEVIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9205672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-Xeno-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Revelide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bbc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kíra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeeto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jhalmarpro</x:t>
+  </x:si>
+  <x:si>
     <x:t>Howie</x:t>
   </x:si>
   <x:si>
-    <x:t>Magpie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LORDEVIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boriin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruben123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mg123ok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JokiPau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>magic_exe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bow and arrow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HD Gamer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lubiniio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cidar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fleur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sub-zero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jupiter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9205672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-Xeno-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Revelide</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bbc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kíra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeeto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jhalmarpro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lionclaw</x:t>
-  </x:si>
-  <x:si>
     <x:t>ARISTHEOREO</x:t>
   </x:si>
   <x:si>
@@ -283,7 +277,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>5,1 (46/9)</x:t>
+    <x:t>7,0 (14/2)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -292,6 +286,27 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
+    <x:t>6,5 (13/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (1/0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,5 (18/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,0 (5/0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (1/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (12/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,1 (53/13)</x:t>
+  </x:si>
+  <x:si>
     <x:t>6,0 (6/1)</x:t>
   </x:si>
   <x:si>
@@ -301,163 +316,145 @@
     <x:t>2,0 (4/2)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,5 (18/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,0 (5/0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (1/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (12/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9 (39/10)</x:t>
+    <x:t>1,8 (7/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (3/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (1789/632)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (54/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (111/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (123/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (99/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (377/126)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (37/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (153/60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (604/186)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (173/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (58/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (203/77)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,0 (30/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (5/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (23/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (7/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (134/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (283/111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (45/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,0 (12/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (124/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (16/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (86/27)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (924/412)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (161/71)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (42/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (93/80)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (130/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (269/94)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (228/103)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (865/399)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (22/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (43/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (2/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (84/47)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (128/81)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (149/63)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (396/141)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (18/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (303/149)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (69/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (234/113)</x:t>
   </x:si>
   <x:si>
     <x:t>2,0 (8/4)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,2 (31/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (3/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (1731/593)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (54/21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (111/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (123/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (99/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (377/126)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4 (37/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (153/60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (604/186)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (173/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (203/77)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,0 (30/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,8 (5/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (23/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (7/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (134/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (181/75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (45/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,0 (12/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (124/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (625/269)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (2/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (1/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (187/82)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (230/86)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (205/95)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (695/308)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (161/71)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (42/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (93/80)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (130/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (269/94)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (847/383)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (22/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (43/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (2/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (84/47)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (128/81)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (149/63)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (396/141)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (303/149)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (69/36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (234/113)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (430/233)</x:t>
+    <x:t>1,9 (437/235)</x:t>
   </x:si>
   <x:si>
     <x:t>3,8 (34/9)</x:t>
@@ -478,7 +475,7 @@
     <x:t>1,7 (17/10)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,8 (1110/625)</x:t>
+    <x:t>1,7 (1390/825)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (100/68)</x:t>
@@ -505,7 +502,73 @@
     <x:t>1,7 (196/114)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (63/39)</x:t>
+    <x:t>1,4 (226/158)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (54/42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (366/230)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (90/68)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (53/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (68/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (75/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (25/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (5/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (50/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (1615/1049)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (75/42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (95/64)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (55/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (212/160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (47/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (48/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (73/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (147/109)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (220/145)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (378/205)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (265/205)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (109/74)</x:t>
   </x:si>
   <x:si>
     <x:t>7,0 (7/0)</x:t>
@@ -520,76 +583,19 @@
     <x:t>2,2 (29/13)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (1350/844)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (75/42)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (95/64)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (55/31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (212/160)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (47/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (48/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (73/31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (147/109)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (220/145)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (378/205)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (316/206)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (90/68)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (53/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (68/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (75/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (25/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (5/7)</x:t>
+    <x:t>1,3 (46/35)</x:t>
   </x:si>
   <x:si>
     <x:t>1,5 (61/42)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (1/0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (16/9)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,1 (9/8)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (34/24)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (653/480)</x:t>
+    <x:t>1,4 (680/497)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (29/20)</x:t>
@@ -616,6 +622,9 @@
     <x:t>1,9 (104/54)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,6 (27/17)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,4 (76/56)</x:t>
   </x:si>
   <x:si>
@@ -631,7 +640,28 @@
     <x:t>0,9 (7/8)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2 (365/292)</x:t>
+    <x:t>1,2 (239/193)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (46/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (127/124)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (66/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (16/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (14/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (2/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (409/341)</x:t>
   </x:si>
   <x:si>
     <x:t>1,1 (99/90)</x:t>
@@ -649,46 +679,40 @@
     <x:t>2,1 (62/29)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2 (16/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (14/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (2/2)</x:t>
+    <x:t>0,9 (44/49)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (59/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (25/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,0 (6/0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (28/27)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (35/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (20/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,5 (13/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (19/20)</x:t>
   </x:si>
   <x:si>
     <x:t>1,1 (16/14)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,1 (59/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (25/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,0 (6/0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (28/27)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (173/167)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (46/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (127/124)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (35/35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (20/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (13/25)</x:t>
+    <x:t>0,5 (3/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (9/10)</x:t>
   </x:si>
   <x:si>
     <x:t>0,6 (6/10)</x:t>
@@ -698,6 +722,9 @@
   </x:si>
   <x:si>
     <x:t>1,0 (3/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/4)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1177,10 +1204,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>8317.08812083339</x:v>
+        <x:v>7096.6430555556</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1204480.64110417</x:v>
+        <x:v>1206469.4765625</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="s"/>
@@ -1214,16 +1241,22 @@
       <x:c r="P2" s="16" t="n">
         <x:v>6790.47758333292</x:v>
       </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>1988.83545833337</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>5581.60212499991</x:v>
+        <x:v>5422.35415624988</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>1871780.006</x:v>
+        <x:v>1881032.234625</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="s"/>
@@ -1257,48 +1290,64 @@
       <x:c r="P3" s="16" t="n">
         <x:v>9569.95318750013</x:v>
       </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>7994.284291666</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>1257.94433333352</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
       <x:c r="B4" s="14" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>4056.32326249998</x:v>
+        <x:v>3509.34751785711</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>740012.237208333</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="s"/>
-      <x:c r="F4" s="16" t="s"/>
+        <x:v>355708.866666666</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="n">
+        <x:v>1837.53795833333</x:v>
+      </x:c>
       <x:c r="G4" s="16" t="n">
-        <x:v>296.562333333306</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="16" t="n">
-        <x:v>1640.56229166675</x:v>
+        <x:v>2822.75795833324</x:v>
       </x:c>
       <x:c r="I4" s="16" t="n">
-        <x:v>36.9773333333433</x:v>
+        <x:v>1355.45862500003</x:v>
       </x:c>
       <x:c r="J4" s="16" t="n">
-        <x:v>4604.11250000005</x:v>
+        <x:v>4833.82366666658</x:v>
       </x:c>
       <x:c r="K4" s="16" t="n">
-        <x:v>657.816166666569</x:v>
+        <x:v>873.742833333206</x:v>
       </x:c>
       <x:c r="L4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2906.13666666666</x:v>
       </x:c>
       <x:c r="M4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2465.90454166662</x:v>
       </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>4026.23816666682</x:v>
+        <x:v>3484.03779166675</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>14229.8215416665</x:v>
+        <x:v>5213.61424999987</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>15071.1422916665</x:v>
+        <x:v>11629.7289166666</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>11708.1220416667</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1306,10 +1355,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>3427.86682916672</x:v>
+        <x:v>3477.30907291666</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>593024.567458333</x:v>
+        <x:v>600473.608041666</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="s"/>
@@ -1343,52 +1392,60 @@
       <x:c r="P5" s="16" t="n">
         <x:v>3.53083333338145</x:v>
       </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>7424.15474999952</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>24.8858333332464</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
       <x:c r="B6" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>3118.56193402774</x:v>
+        <x:v>3432.04389930553</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>344000.744625</x:v>
-      </x:c>
-      <x:c r="E6" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="n">
-        <x:v>1837.53795833333</x:v>
-      </x:c>
+        <x:v>740633.531375</x:v>
+      </x:c>
+      <x:c r="E6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s"/>
       <x:c r="G6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>296.562333333306</x:v>
       </x:c>
       <x:c r="H6" s="16" t="n">
-        <x:v>2822.75795833324</x:v>
+        <x:v>1640.56229166675</x:v>
       </x:c>
       <x:c r="I6" s="16" t="n">
-        <x:v>1355.45862500003</x:v>
+        <x:v>36.9773333333433</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>4833.82366666658</x:v>
+        <x:v>4604.11250000005</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
-        <x:v>873.742833333206</x:v>
+        <x:v>657.816166666569</x:v>
       </x:c>
       <x:c r="L6" s="16" t="n">
-        <x:v>2906.13666666666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>2465.90454166662</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>3484.03779166675</x:v>
+        <x:v>4026.23816666682</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>5213.61424999987</x:v>
+        <x:v>14229.8215416665</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>11629.7289166666</x:v>
+        <x:v>15071.1422916665</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>621.294166666572</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1396,10 +1453,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>2925.260725</x:v>
+        <x:v>2504.24282986111</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>217644.337354167</x:v>
+        <x:v>218442.6440625</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="s"/>
@@ -1433,48 +1490,64 @@
       <x:c r="P7" s="16" t="n">
         <x:v>3799.47629166665</x:v>
       </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>798.306708333344</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
       <x:c r="B8" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>2896.34811458331</x:v>
+        <x:v>2148.8327470238</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>280452.976416666</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="s"/>
-      <x:c r="F8" s="16" t="s"/>
+        <x:v>272022.280333333</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="n">
+        <x:v>1128.60883333333</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="n">
+        <x:v>1822.98491666667</x:v>
+      </x:c>
       <x:c r="G8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>79.0559999999823</x:v>
+        <x:v>4842.56350000002</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="16" t="n">
-        <x:v>46.0653333333321</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>11463.4452083333</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>10424.8377499999</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>7536.19799999997</x:v>
+        <x:v>280.732750000025</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>12982.8850416665</x:v>
+        <x:v>27.1720000000205</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>8319.27677083336</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>93.3134999999893</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1482,46 +1555,48 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>2499.19541319444</x:v>
+        <x:v>1683.36007465278</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>271928.966833333</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="n">
-        <x:v>1128.60883333333</x:v>
-      </x:c>
-      <x:c r="F9" s="16" t="n">
-        <x:v>1822.98491666667</x:v>
-      </x:c>
+        <x:v>506088.989729166</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
       <x:c r="G9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2904.53024999995</x:v>
       </x:c>
       <x:c r="H9" s="16" t="n">
-        <x:v>4842.56350000002</x:v>
+        <x:v>10164.6550833334</x:v>
       </x:c>
       <x:c r="I9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1110.06883333332</x:v>
       </x:c>
       <x:c r="K9" s="16" t="n">
-        <x:v>11463.4452083333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="16" t="n">
-        <x:v>10424.8377499999</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>280.732750000025</x:v>
+        <x:v>499.384166666656</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>27.1720000000205</x:v>
+        <x:v>4103.2420416667</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>1418.44052083336</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1529,24 +1604,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>1878.1880375</x:v>
+        <x:v>1332.42200520833</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>504670.549208332</x:v>
+        <x:v>267676.223354166</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s"/>
       <x:c r="F10" s="16" t="s"/>
       <x:c r="G10" s="16" t="n">
-        <x:v>2904.53024999995</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="16" t="n">
-        <x:v>10164.6550833334</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="16" t="n">
-        <x:v>1110.06883333332</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
         <x:v>0</x:v>
@@ -1555,16 +1630,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>896.860583333328</x:v>
       </x:c>
       <x:c r="N10" s="16" t="n">
-        <x:v>499.384166666656</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O10" s="16" t="n">
-        <x:v>4103.2420416667</x:v>
+        <x:v>561.018499999976</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>9494.15110416673</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>372.359999999986</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>4664.67387499992</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1572,10 +1653,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>1257.63570416667</x:v>
+        <x:v>1277.15033506944</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>100294.173083333</x:v>
+        <x:v>103043.6200625</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="s"/>
@@ -1609,56 +1690,62 @@
       <x:c r="P11" s="16" t="n">
         <x:v>255.356833333324</x:v>
       </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>2749.44697916662</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>1095.20301875</x:v>
+        <x:v>1060.04219444444</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>262639.189479167</x:v>
+        <x:v>236172.795520834</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s"/>
       <x:c r="F12" s="16" t="s"/>
-      <x:c r="G12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G12" s="16" t="s"/>
+      <x:c r="H12" s="16" t="s"/>
       <x:c r="I12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>838.525333333295</x:v>
       </x:c>
       <x:c r="K12" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4520.00150000004</x:v>
       </x:c>
       <x:c r="L12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="16" t="n">
-        <x:v>896.860583333328</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O12" s="16" t="n">
-        <x:v>561.018499999976</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
-        <x:v>9494.15110416673</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>4181.85291666666</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>1093.26259895832</x:v>
+        <x:v>937.082227678562</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
         <x:v>382676.063354167</x:v>
@@ -1699,14 +1786,20 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>833.688333333325</x:v>
+        <x:v>694.740277777771</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
         <x:v>317125.357895832</x:v>
@@ -1743,36 +1836,46 @@
       <x:c r="P14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>669.815854166667</x:v>
+        <x:v>298.722928819438</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>231990.942604167</x:v>
+        <x:v>125981.600854167</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s"/>
       <x:c r="F15" s="16" t="s"/>
-      <x:c r="G15" s="16" t="s"/>
-      <x:c r="H15" s="16" t="s"/>
+      <x:c r="G15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="16" t="n">
-        <x:v>838.525333333295</x:v>
+        <x:v>1465.51024999998</x:v>
       </x:c>
       <x:c r="K15" s="16" t="n">
-        <x:v>4520.00150000004</x:v>
+        <x:v>217.775666666668</x:v>
       </x:c>
       <x:c r="L15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1901.38922916661</x:v>
       </x:c>
       <x:c r="M15" s="16" t="n">
         <x:v>0</x:v>
@@ -1784,6 +1887,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1792,10 +1901,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>358.467514583326</x:v>
+        <x:v>275.323677083335</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>125981.600854167</x:v>
+        <x:v>113876.640916667</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s"/>
       <x:c r="F16" s="16" t="s"/>
@@ -1803,30 +1912,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>365.64979166667</x:v>
       </x:c>
       <x:c r="I16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>72.6245000000054</x:v>
       </x:c>
       <x:c r="J16" s="16" t="n">
-        <x:v>1465.51024999998</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K16" s="16" t="n">
-        <x:v>217.775666666668</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L16" s="16" t="n">
-        <x:v>1901.38922916661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>656.047166666671</x:v>
       </x:c>
       <x:c r="O16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>719.668708333338</x:v>
       </x:c>
       <x:c r="P16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>1489.89395833333</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1835,7 +1950,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>183.743512500007</x:v>
+        <x:v>153.119593750006</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
         <x:v>176733.667125</x:v>
@@ -1872,16 +1987,22 @@
       <x:c r="P17" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>181.399016666668</x:v>
+        <x:v>151.415458333333</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>112386.746958333</x:v>
+        <x:v>85853.5825208333</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s"/>
       <x:c r="F18" s="16" t="s"/>
@@ -1889,10 +2010,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="16" t="n">
-        <x:v>365.64979166667</x:v>
+        <x:v>219.493166666667</x:v>
       </x:c>
       <x:c r="I18" s="16" t="n">
-        <x:v>72.6245000000054</x:v>
+        <x:v>1218.238</x:v>
       </x:c>
       <x:c r="J18" s="16" t="n">
         <x:v>0</x:v>
@@ -1901,18 +2022,24 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>56.4946666666656</x:v>
       </x:c>
       <x:c r="M18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N18" s="16" t="n">
-        <x:v>656.047166666671</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O18" s="16" t="n">
-        <x:v>719.668708333338</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P18" s="16" t="n">
+        <x:v>227.822166666665</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>94.9375</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1921,10 +2048,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>172.2048</x:v>
+        <x:v>132.106135416668</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>85758.6450208333</x:v>
+        <x:v>90109.5608750002</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="s"/>
@@ -1932,31 +2059,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="16" t="n">
-        <x:v>219.493166666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I19" s="16" t="n">
-        <x:v>1218.238</x:v>
+        <x:v>17.2708333333285</x:v>
       </x:c>
       <x:c r="J19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>376.689541666667</x:v>
       </x:c>
       <x:c r="L19" s="16" t="n">
-        <x:v>56.4946666666656</x:v>
+        <x:v>18.5130000000063</x:v>
       </x:c>
       <x:c r="M19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>162.527000000002</x:v>
       </x:c>
       <x:c r="N19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1010.27325000001</x:v>
       </x:c>
       <x:c r="O19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>227.822166666665</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -1964,41 +2097,51 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>158.527362500001</x:v>
+        <x:v>73.9365327380947</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>90109.5608750002</x:v>
-      </x:c>
-      <x:c r="E20" s="16" t="s"/>
-      <x:c r="F20" s="16" t="s"/>
+        <x:v>195963.048875</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="G20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>42.198000000004</x:v>
       </x:c>
       <x:c r="I20" s="16" t="n">
-        <x:v>17.2708333333285</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>721.250625000015</x:v>
       </x:c>
       <x:c r="K20" s="16" t="n">
-        <x:v>376.689541666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L20" s="16" t="n">
-        <x:v>18.5130000000063</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M20" s="16" t="n">
-        <x:v>162.527000000002</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N20" s="16" t="n">
-        <x:v>1010.27325000001</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P20" s="16" t="n">
+        <x:v>271.662833333306</x:v>
+      </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2007,10 +2150,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>87.7225333333307</x:v>
+        <x:v>58.3117118055573</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>351456.348729166</x:v>
+        <x:v>348327.553625</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -2018,13 +2161,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>197.372166666668</x:v>
       </x:c>
       <x:c r="I21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>17.0181666666758</x:v>
       </x:c>
       <x:c r="K21" s="16" t="n">
         <x:v>0</x:v>
@@ -2033,16 +2176,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="16" t="n">
-        <x:v>117.293166666641</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O21" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>485.350208333344</x:v>
       </x:c>
       <x:c r="P21" s="16" t="n">
-        <x:v>759.932166666666</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -2050,28 +2199,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="15" t="n">
-        <x:v>86.2592881944438</x:v>
+        <x:v>44.4714166666721</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>195963.048875</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>459279.701999999</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="s"/>
+      <x:c r="F22" s="16" t="s"/>
       <x:c r="G22" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="16" t="n">
-        <x:v>42.198000000004</x:v>
+        <x:v>0.982000000018161</x:v>
       </x:c>
       <x:c r="I22" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="16" t="n">
-        <x:v>721.250625000015</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="16" t="n">
         <x:v>0</x:v>
@@ -2086,10 +2231,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>455.970500000054</x:v>
       </x:c>
       <x:c r="P22" s="16" t="n">
-        <x:v>271.662833333306</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="16" t="n">
+        <x:v>76.7044999999925</x:v>
+      </x:c>
+      <x:c r="R22" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
@@ -2097,10 +2248,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>69.9740541666688</x:v>
+        <x:v>43.0941805555582</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>348327.553625</x:v>
+        <x:v>609370.066375001</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s"/>
       <x:c r="F23" s="16" t="s"/>
@@ -2108,19 +2259,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="16" t="n">
-        <x:v>197.372166666668</x:v>
+        <x:v>444.225333333365</x:v>
       </x:c>
       <x:c r="I23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J23" s="16" t="n">
-        <x:v>17.0181666666758</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>7.54649999993853</x:v>
       </x:c>
       <x:c r="L23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>65.3583333333954</x:v>
       </x:c>
       <x:c r="M23" s="16" t="n">
         <x:v>0</x:v>
@@ -2129,9 +2280,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O23" s="16" t="n">
-        <x:v>485.350208333344</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P23" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q23" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2140,10 +2297,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="15" t="n">
-        <x:v>51.7130166666699</x:v>
+        <x:v>40.0052881944382</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>609370.066375001</x:v>
+        <x:v>1095620.71264583</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s"/>
       <x:c r="F24" s="16" t="s"/>
@@ -2151,7 +2308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="16" t="n">
-        <x:v>444.225333333365</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="16" t="n">
         <x:v>0</x:v>
@@ -2160,10 +2317,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="16" t="n">
-        <x:v>7.54649999993853</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="16" t="n">
-        <x:v>65.3583333333954</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M24" s="16" t="n">
         <x:v>0</x:v>
@@ -2176,6 +2333,12 @@
       </x:c>
       <x:c r="P24" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="16" t="n">
+        <x:v>376.718666666653</x:v>
+      </x:c>
+      <x:c r="R24" s="16" t="n">
+        <x:v>103.344791666605</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:146">
@@ -2183,10 +2346,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="15" t="n">
-        <x:v>45.6952500000072</x:v>
+        <x:v>22.0460555555547</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>459202.997499999</x:v>
+        <x:v>98878.8249374999</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
       <x:c r="F25" s="16" t="s"/>
@@ -2194,7 +2357,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="16" t="n">
-        <x:v>0.982000000018161</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I25" s="16" t="n">
         <x:v>0</x:v>
@@ -2203,7 +2366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K25" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>264.552666666656</x:v>
       </x:c>
       <x:c r="L25" s="16" t="n">
         <x:v>0</x:v>
@@ -2215,9 +2378,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O25" s="16" t="n">
-        <x:v>455.970500000054</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R25" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2226,10 +2395,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="15" t="n">
-        <x:v>26.4552666666656</x:v>
+        <x:v>21.5277222222212</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>98878.8249374999</x:v>
+        <x:v>182004.82675</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s"/>
       <x:c r="F26" s="16" t="s"/>
@@ -2246,7 +2415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K26" s="16" t="n">
-        <x:v>264.552666666656</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="16" t="n">
         <x:v>0</x:v>
@@ -2262,6 +2431,12 @@
       </x:c>
       <x:c r="P26" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R26" s="16" t="n">
+        <x:v>258.332666666654</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
@@ -2269,7 +2444,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="15" t="n">
-        <x:v>13.3194999999992</x:v>
+        <x:v>11.0995833333327</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
         <x:v>52039.9084375</x:v>
@@ -2306,13 +2481,19 @@
       <x:c r="P27" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="15" t="n">
-        <x:v>7.63356666666514</x:v>
+        <x:v>6.36130555555428</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
         <x:v>94897.164125</x:v>
@@ -2349,13 +2530,19 @@
       <x:c r="P28" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="15" t="n">
-        <x:v>4.28698333333596</x:v>
+        <x:v>3.5724861111133</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
         <x:v>390230.993499999</x:v>
@@ -2392,13 +2579,19 @@
       <x:c r="P29" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="15" t="n">
-        <x:v>3.96031666666677</x:v>
+        <x:v>3.30026388888897</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
         <x:v>243373.156208333</x:v>
@@ -2435,16 +2628,22 @@
       <x:c r="P30" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="15" t="n">
-        <x:v>0.10460000000021</x:v>
+        <x:v>1.96454166666808</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>86226.3585416665</x:v>
+        <x:v>235885.756666666</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -2473,9 +2672,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="16" t="n">
-        <x:v>1.0460000000021</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q31" s="16" t="n">
+        <x:v>23.574500000017</x:v>
+      </x:c>
+      <x:c r="R31" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2484,10 +2689,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>0.0871666666668417</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>1617002.04370834</x:v>
+        <x:v>86226.3585416665</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2516,9 +2721,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1.0460000000021</x:v>
       </x:c>
       <x:c r="P32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q32" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R32" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2530,7 +2741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>181746.494083333</x:v>
+        <x:v>71934.3908333333</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2564,6 +2775,12 @@
       <x:c r="P33" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q33" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R33" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2573,7 +2790,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>122920.134125</x:v>
+        <x:v>755909.104458333</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2607,6 +2824,12 @@
       <x:c r="P34" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q34" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R34" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2616,7 +2839,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>71934.3908333333</x:v>
+        <x:v>601803.997708334</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2650,6 +2873,12 @@
       <x:c r="P35" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R35" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2659,7 +2888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>755909.104458333</x:v>
+        <x:v>80786.9382083334</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2693,6 +2922,12 @@
       <x:c r="P36" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R36" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2702,10 +2937,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>601803.997708334</x:v>
-      </x:c>
-      <x:c r="E37" s="16" t="s"/>
-      <x:c r="F37" s="16" t="s"/>
+        <x:v>193380.765708333</x:v>
+      </x:c>
+      <x:c r="E37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="G37" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -2734,6 +2973,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q37" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R37" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2745,7 +2990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>80786.9382083334</x:v>
+        <x:v>2992.11341666667</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2779,6 +3024,12 @@
       <x:c r="P38" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q38" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R38" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2788,44 +3039,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>193380.765708333</x:v>
-      </x:c>
-      <x:c r="E39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>289774.640541667</x:v>
+      </x:c>
+      <x:c r="E39" s="16" t="s"/>
+      <x:c r="F39" s="16" t="s"/>
+      <x:c r="G39" s="16" t="s"/>
+      <x:c r="H39" s="16" t="s"/>
+      <x:c r="I39" s="16" t="s"/>
+      <x:c r="J39" s="16" t="s"/>
+      <x:c r="K39" s="16" t="s"/>
+      <x:c r="L39" s="16" t="s"/>
+      <x:c r="M39" s="16" t="s"/>
+      <x:c r="N39" s="16" t="s"/>
+      <x:c r="O39" s="16" t="s"/>
+      <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2835,7 +3064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>2992.11341666667</x:v>
+        <x:v>224188.888958334</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2869,6 +3098,12 @@
       <x:c r="P40" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2878,20 +3113,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>289774.640541667</x:v>
+        <x:v>112700.123041667</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
-      <x:c r="G41" s="16" t="s"/>
-      <x:c r="H41" s="16" t="s"/>
-      <x:c r="I41" s="16" t="s"/>
-      <x:c r="J41" s="16" t="s"/>
-      <x:c r="K41" s="16" t="s"/>
-      <x:c r="L41" s="16" t="s"/>
-      <x:c r="M41" s="16" t="s"/>
-      <x:c r="N41" s="16" t="s"/>
-      <x:c r="O41" s="16" t="s"/>
-      <x:c r="P41" s="16" t="s"/>
+      <x:c r="G41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R41" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2901,7 +3162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>224188.888958334</x:v>
+        <x:v>24770.6480833333</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2935,6 +3196,12 @@
       <x:c r="P42" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q42" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R42" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2944,7 +3211,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>112700.123041667</x:v>
+        <x:v>284486.9001875</x:v>
       </x:c>
       <x:c r="E43" s="16" t="s"/>
       <x:c r="F43" s="16" t="s"/>
@@ -2978,6 +3245,12 @@
       <x:c r="P43" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q43" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R43" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2987,40 +3260,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>24770.6480833333</x:v>
+        <x:v>460913.288583333</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
-      <x:c r="G44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P44" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G44" s="16" t="s"/>
+      <x:c r="H44" s="16" t="s"/>
+      <x:c r="I44" s="16" t="s"/>
+      <x:c r="J44" s="16" t="s"/>
+      <x:c r="K44" s="16" t="s"/>
+      <x:c r="L44" s="16" t="s"/>
+      <x:c r="M44" s="16" t="s"/>
+      <x:c r="N44" s="16" t="s"/>
+      <x:c r="O44" s="16" t="s"/>
+      <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -3030,40 +3285,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>284486.9001875</x:v>
+        <x:v>136320.8565</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
-      <x:c r="G45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P45" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G45" s="16" t="s"/>
+      <x:c r="H45" s="16" t="s"/>
+      <x:c r="I45" s="16" t="s"/>
+      <x:c r="J45" s="16" t="s"/>
+      <x:c r="K45" s="16" t="s"/>
+      <x:c r="L45" s="16" t="s"/>
+      <x:c r="M45" s="16" t="s"/>
+      <x:c r="N45" s="16" t="s"/>
+      <x:c r="O45" s="16" t="s"/>
+      <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -3073,20 +3310,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>460913.288583333</x:v>
+        <x:v>122920.134125</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
-      <x:c r="G46" s="16" t="s"/>
-      <x:c r="H46" s="16" t="s"/>
-      <x:c r="I46" s="16" t="s"/>
-      <x:c r="J46" s="16" t="s"/>
-      <x:c r="K46" s="16" t="s"/>
-      <x:c r="L46" s="16" t="s"/>
-      <x:c r="M46" s="16" t="s"/>
-      <x:c r="N46" s="16" t="s"/>
-      <x:c r="O46" s="16" t="s"/>
-      <x:c r="P46" s="16" t="s"/>
+      <x:c r="G46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R46" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -3096,20 +3359,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>136320.8565</x:v>
+        <x:v>1190.763</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
-      <x:c r="G47" s="16" t="s"/>
-      <x:c r="H47" s="16" t="s"/>
-      <x:c r="I47" s="16" t="s"/>
-      <x:c r="J47" s="16" t="s"/>
-      <x:c r="K47" s="16" t="s"/>
-      <x:c r="L47" s="16" t="s"/>
-      <x:c r="M47" s="16" t="s"/>
-      <x:c r="N47" s="16" t="s"/>
-      <x:c r="O47" s="16" t="s"/>
-      <x:c r="P47" s="16" t="s"/>
+      <x:c r="G47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R47" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -3119,7 +3408,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>1095140.6491875</x:v>
+        <x:v>766.781916666667</x:v>
       </x:c>
       <x:c r="E48" s="16" t="s"/>
       <x:c r="F48" s="16" t="s"/>
@@ -3153,6 +3442,12 @@
       <x:c r="P48" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -3162,7 +3457,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="15" t="n">
-        <x:v>1190.763</x:v>
+        <x:v>238269.389833333</x:v>
       </x:c>
       <x:c r="E49" s="16" t="s"/>
       <x:c r="F49" s="16" t="s"/>
@@ -3196,6 +3491,12 @@
       <x:c r="P49" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q49" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R49" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -3205,7 +3506,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="15" t="n">
-        <x:v>766.781916666667</x:v>
+        <x:v>80719.1905</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s"/>
       <x:c r="F50" s="16" t="s"/>
@@ -3239,6 +3540,12 @@
       <x:c r="P50" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q50" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R50" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -3248,7 +3555,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="15" t="n">
-        <x:v>238269.389833333</x:v>
+        <x:v>265189.336354166</x:v>
       </x:c>
       <x:c r="E51" s="16" t="s"/>
       <x:c r="F51" s="16" t="s"/>
@@ -3282,6 +3589,12 @@
       <x:c r="P51" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q51" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R51" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -3291,7 +3604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="15" t="n">
-        <x:v>80719.1905</x:v>
+        <x:v>386643.5715</x:v>
       </x:c>
       <x:c r="E52" s="16" t="s"/>
       <x:c r="F52" s="16" t="s"/>
@@ -3325,6 +3638,12 @@
       <x:c r="P52" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q52" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R52" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:146">
       <x:c r="B53" s="14" t="s">
@@ -3334,9 +3653,11 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="15" t="n">
-        <x:v>265189.336354166</x:v>
-      </x:c>
-      <x:c r="E53" s="16" t="s"/>
+        <x:v>339041.4049375</x:v>
+      </x:c>
+      <x:c r="E53" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F53" s="16" t="s"/>
       <x:c r="G53" s="16" t="n">
         <x:v>0</x:v>
@@ -3366,6 +3687,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P53" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q53" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R53" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3377,40 +3704,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="15" t="n">
-        <x:v>386643.5715</x:v>
+        <x:v>430507.260437499</x:v>
       </x:c>
       <x:c r="E54" s="16" t="s"/>
       <x:c r="F54" s="16" t="s"/>
-      <x:c r="G54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P54" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G54" s="16" t="s"/>
+      <x:c r="H54" s="16" t="s"/>
+      <x:c r="I54" s="16" t="s"/>
+      <x:c r="J54" s="16" t="s"/>
+      <x:c r="K54" s="16" t="s"/>
+      <x:c r="L54" s="16" t="s"/>
+      <x:c r="M54" s="16" t="s"/>
+      <x:c r="N54" s="16" t="s"/>
+      <x:c r="O54" s="16" t="s"/>
+      <x:c r="P54" s="16" t="s"/>
+      <x:c r="Q54" s="16" t="s"/>
+      <x:c r="R54" s="16" t="s"/>
     </x:row>
     <x:row r="55" spans="1:146">
       <x:c r="B55" s="14" t="s">
@@ -3420,11 +3729,9 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="15" t="n">
-        <x:v>339041.4049375</x:v>
-      </x:c>
-      <x:c r="E55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>1617002.04370834</x:v>
+      </x:c>
+      <x:c r="E55" s="16" t="s"/>
       <x:c r="F55" s="16" t="s"/>
       <x:c r="G55" s="16" t="n">
         <x:v>0</x:v>
@@ -3454,6 +3761,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P55" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q55" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R55" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3465,20 +3778,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="15" t="n">
-        <x:v>430507.260437499</x:v>
+        <x:v>37236.089875</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s"/>
       <x:c r="F56" s="16" t="s"/>
-      <x:c r="G56" s="16" t="s"/>
-      <x:c r="H56" s="16" t="s"/>
-      <x:c r="I56" s="16" t="s"/>
-      <x:c r="J56" s="16" t="s"/>
-      <x:c r="K56" s="16" t="s"/>
-      <x:c r="L56" s="16" t="s"/>
-      <x:c r="M56" s="16" t="s"/>
-      <x:c r="N56" s="16" t="s"/>
-      <x:c r="O56" s="16" t="s"/>
-      <x:c r="P56" s="16" t="s"/>
+      <x:c r="G56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R56" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:146">
       <x:c r="B57" s="14" t="s">
@@ -3488,7 +3827,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="15" t="n">
-        <x:v>235862.182166666</x:v>
+        <x:v>63121.2599166667</x:v>
       </x:c>
       <x:c r="E57" s="16" t="s"/>
       <x:c r="F57" s="16" t="s"/>
@@ -3522,6 +3861,12 @@
       <x:c r="P57" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q57" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R57" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:146">
       <x:c r="B58" s="14" t="s">
@@ -3531,7 +3876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="15" t="n">
-        <x:v>37236.089875</x:v>
+        <x:v>55533.0010833333</x:v>
       </x:c>
       <x:c r="E58" s="16" t="s"/>
       <x:c r="F58" s="16" t="s"/>
@@ -3565,6 +3910,12 @@
       <x:c r="P58" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q58" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R58" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:146">
       <x:c r="B59" s="14" t="s">
@@ -3574,10 +3925,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D59" s="15" t="n">
-        <x:v>63121.2599166667</x:v>
+        <x:v>339064.721708333</x:v>
       </x:c>
       <x:c r="E59" s="16" t="s"/>
-      <x:c r="F59" s="16" t="s"/>
+      <x:c r="F59" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="G59" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3606,6 +3959,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P59" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q59" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R59" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3617,7 +3976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="15" t="n">
-        <x:v>55533.0010833333</x:v>
+        <x:v>5948.21308333333</x:v>
       </x:c>
       <x:c r="E60" s="16" t="s"/>
       <x:c r="F60" s="16" t="s"/>
@@ -3651,6 +4010,12 @@
       <x:c r="P60" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:146">
       <x:c r="B61" s="14" t="s">
@@ -3660,12 +4025,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="15" t="n">
-        <x:v>339064.721708333</x:v>
+        <x:v>99735.7776875001</x:v>
       </x:c>
       <x:c r="E61" s="16" t="s"/>
-      <x:c r="F61" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F61" s="16" t="s"/>
       <x:c r="G61" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3694,6 +4057,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P61" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q61" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R61" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3705,7 +4074,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="15" t="n">
-        <x:v>5948.21308333333</x:v>
+        <x:v>157493.416291667</x:v>
       </x:c>
       <x:c r="E62" s="16" t="s"/>
       <x:c r="F62" s="16" t="s"/>
@@ -3739,6 +4108,12 @@
       <x:c r="P62" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q62" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R62" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:146">
       <x:c r="B63" s="14" t="s">
@@ -3748,7 +4123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D63" s="15" t="n">
-        <x:v>99735.7776875001</x:v>
+        <x:v>6093.05808333333</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s"/>
       <x:c r="F63" s="16" t="s"/>
@@ -3782,6 +4157,12 @@
       <x:c r="P63" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q63" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R63" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:146">
       <x:c r="B64" s="14" t="s">
@@ -3791,7 +4172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="15" t="n">
-        <x:v>157493.416291667</x:v>
+        <x:v>426006.433083333</x:v>
       </x:c>
       <x:c r="E64" s="16" t="s"/>
       <x:c r="F64" s="16" t="s"/>
@@ -3825,6 +4206,12 @@
       <x:c r="P64" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:146">
       <x:c r="B65" s="14" t="s">
@@ -3834,7 +4221,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="15" t="n">
-        <x:v>6093.05808333333</x:v>
+        <x:v>539530.753208333</x:v>
       </x:c>
       <x:c r="E65" s="16" t="s"/>
       <x:c r="F65" s="16" t="s"/>
@@ -3868,6 +4255,12 @@
       <x:c r="P65" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R65" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:146">
       <x:c r="B66" s="14" t="s">
@@ -3877,7 +4270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="15" t="n">
-        <x:v>426006.433083333</x:v>
+        <x:v>37656.7000416667</x:v>
       </x:c>
       <x:c r="E66" s="16" t="s"/>
       <x:c r="F66" s="16" t="s"/>
@@ -3911,6 +4304,12 @@
       <x:c r="P66" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R66" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:146">
       <x:c r="B67" s="14" t="s">
@@ -3920,7 +4319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="15" t="n">
-        <x:v>539530.753208333</x:v>
+        <x:v>97671.6502916667</x:v>
       </x:c>
       <x:c r="E67" s="16" t="s"/>
       <x:c r="F67" s="16" t="s"/>
@@ -3954,6 +4353,12 @@
       <x:c r="P67" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:146">
       <x:c r="B68" s="14" t="s">
@@ -3963,7 +4368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="15" t="n">
-        <x:v>37656.7000416667</x:v>
+        <x:v>182934.749</x:v>
       </x:c>
       <x:c r="E68" s="16" t="s"/>
       <x:c r="F68" s="16" t="s"/>
@@ -3997,6 +4402,12 @@
       <x:c r="P68" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:146">
       <x:c r="B69" s="14" t="s">
@@ -4006,7 +4417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="15" t="n">
-        <x:v>97671.6502916667</x:v>
+        <x:v>10719.5820833333</x:v>
       </x:c>
       <x:c r="E69" s="16" t="s"/>
       <x:c r="F69" s="16" t="s"/>
@@ -4040,6 +4451,12 @@
       <x:c r="P69" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q69" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R69" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:146">
       <x:c r="B70" s="14" t="s">
@@ -4049,40 +4466,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="15" t="n">
-        <x:v>182934.749</x:v>
+        <x:v>193348.248583333</x:v>
       </x:c>
       <x:c r="E70" s="16" t="s"/>
       <x:c r="F70" s="16" t="s"/>
-      <x:c r="G70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P70" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G70" s="16" t="s"/>
+      <x:c r="H70" s="16" t="s"/>
+      <x:c r="I70" s="16" t="s"/>
+      <x:c r="J70" s="16" t="s"/>
+      <x:c r="K70" s="16" t="s"/>
+      <x:c r="L70" s="16" t="s"/>
+      <x:c r="M70" s="16" t="s"/>
+      <x:c r="N70" s="16" t="s"/>
+      <x:c r="O70" s="16" t="s"/>
+      <x:c r="P70" s="16" t="s"/>
+      <x:c r="Q70" s="16" t="s"/>
+      <x:c r="R70" s="16" t="s"/>
     </x:row>
     <x:row r="71" spans="1:146">
       <x:c r="B71" s="14" t="s">
@@ -4092,7 +4491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D71" s="15" t="n">
-        <x:v>10719.5820833333</x:v>
+        <x:v>281832.680708334</x:v>
       </x:c>
       <x:c r="E71" s="16" t="s"/>
       <x:c r="F71" s="16" t="s"/>
@@ -4126,6 +4525,12 @@
       <x:c r="P71" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R71" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:146">
       <x:c r="B72" s="14" t="s">
@@ -4135,20 +4540,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D72" s="15" t="n">
-        <x:v>193348.248583333</x:v>
+        <x:v>209027.871020832</x:v>
       </x:c>
       <x:c r="E72" s="16" t="s"/>
       <x:c r="F72" s="16" t="s"/>
-      <x:c r="G72" s="16" t="s"/>
-      <x:c r="H72" s="16" t="s"/>
-      <x:c r="I72" s="16" t="s"/>
-      <x:c r="J72" s="16" t="s"/>
-      <x:c r="K72" s="16" t="s"/>
-      <x:c r="L72" s="16" t="s"/>
-      <x:c r="M72" s="16" t="s"/>
-      <x:c r="N72" s="16" t="s"/>
-      <x:c r="O72" s="16" t="s"/>
-      <x:c r="P72" s="16" t="s"/>
+      <x:c r="G72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R72" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="1:146">
       <x:c r="B73" s="14" t="s">
@@ -4158,7 +4589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D73" s="15" t="n">
-        <x:v>281832.680708334</x:v>
+        <x:v>80607.8821875001</x:v>
       </x:c>
       <x:c r="E73" s="16" t="s"/>
       <x:c r="F73" s="16" t="s"/>
@@ -4192,90 +4623,10 @@
       <x:c r="P73" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:146">
-      <x:c r="B74" s="14" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C74" s="15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D74" s="15" t="n">
-        <x:v>209027.871020832</x:v>
-      </x:c>
-      <x:c r="E74" s="16" t="s"/>
-      <x:c r="F74" s="16" t="s"/>
-      <x:c r="G74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P74" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:146">
-      <x:c r="B75" s="14" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C75" s="15" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D75" s="15" t="n">
-        <x:v>80607.8821875001</x:v>
-      </x:c>
-      <x:c r="E75" s="16" t="s"/>
-      <x:c r="F75" s="16" t="s"/>
-      <x:c r="G75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O75" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P75" s="16" t="n">
+      <x:c r="Q73" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R73" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4297,21 +4648,21 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C88" sqref="C88"/>
+      <x:selection activeCell="C86" sqref="C86"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="22.840625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.980625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="6" width="13.270625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="15.980625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="14.700625" style="0" customWidth="1"/>
     <x:col min="9" max="10" width="15.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="12" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="12" max="16" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -4320,7 +4671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -4367,152 +4718,152 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E2" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I3" s="19" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="J3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M3" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N3" s="19" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I3" s="19" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="J3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G4" s="19" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H4" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K4" s="19" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E4" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="L4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N4" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="O4" s="19" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="P4" s="19" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="M4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N4" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O4" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="P4" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -4520,49 +4871,49 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -4570,49 +4921,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D6" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E6" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F6" s="19" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D6" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E6" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F6" s="19" t="s">
+      <x:c r="G6" s="19" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="G6" s="19" t="s">
+      <x:c r="H6" s="19" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="H6" s="19" t="s">
+      <x:c r="I6" s="19" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="I6" s="19" t="s">
+      <x:c r="J6" s="19" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="J6" s="19" t="s">
+      <x:c r="K6" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L6" s="19" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="K6" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L6" s="19" t="s">
+      <x:c r="M6" s="19" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="M6" s="19" t="s">
+      <x:c r="N6" s="19" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="N6" s="19" t="s">
+      <x:c r="O6" s="19" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="O6" s="19" t="s">
+      <x:c r="P6" s="19" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="P6" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -4623,16 +4974,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
         <x:v>103</x:v>
@@ -4644,10 +4995,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
         <x:v>106</x:v>
@@ -4656,51 +5007,51 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
         <x:v>110</x:v>
@@ -4709,1010 +5060,1010 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>126</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>127</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>132</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F12" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G12" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H12" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I12" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J12" s="19" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F12" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G12" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H12" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I12" s="19" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="J12" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>89</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>136</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>138</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>128</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>143</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>157</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>159</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>167</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>168</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G18" s="19" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H18" s="19" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G18" s="19" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="H18" s="19" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>175</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>177</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>180</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>183</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>184</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>185</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>186</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>187</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>188</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>189</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>196</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>203</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
       <x:c r="B26" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>208</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>209</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>210</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
       <x:c r="B27" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>202</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
       <x:c r="B28" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -5720,49 +6071,49 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
@@ -5770,149 +6121,149 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>214</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
       <x:c r="B31" s="14" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
       <x:c r="B32" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -5920,49 +6271,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -5970,49 +6321,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -6020,49 +6371,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -6070,49 +6421,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -6120,49 +6471,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -6170,49 +6521,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -6220,49 +6571,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -6270,49 +6621,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -6320,49 +6671,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -6370,49 +6721,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -6420,49 +6771,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -6470,49 +6821,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -6520,99 +6871,99 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
       <x:c r="B46" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -6620,99 +6971,99 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
       <x:c r="B48" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -6720,49 +7071,49 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -6770,49 +7121,49 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C50" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -6820,49 +7171,49 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C51" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -6870,49 +7221,49 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -6920,49 +7271,49 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -6970,99 +7321,99 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
       <x:c r="B55" s="14" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -7070,49 +7421,49 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -7120,49 +7471,49 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -7170,49 +7521,49 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -7220,49 +7571,49 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -7270,49 +7621,49 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -7320,49 +7671,49 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -7370,49 +7721,49 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C62" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -7420,49 +7771,49 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C63" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -7470,49 +7821,49 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C64" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:36">
@@ -7520,49 +7871,49 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C65" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O65" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q65" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:36">
@@ -7570,49 +7921,49 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C66" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O66" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q66" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:36">
@@ -7620,49 +7971,49 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C67" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O67" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q67" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:36">
@@ -7670,49 +8021,49 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C68" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O68" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q68" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:36">
@@ -7720,49 +8071,49 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C69" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O69" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q69" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:36">
@@ -7770,49 +8121,49 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C70" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O70" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q70" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:36">
@@ -7820,49 +8171,49 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C71" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O71" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q71" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:36">
@@ -7870,49 +8221,49 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C72" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q72" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:36">
@@ -7920,149 +8271,49 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C73" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D73" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E73" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O73" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P73" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Q73" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:36">
-      <x:c r="B74" s="14" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C74" s="18" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D74" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E74" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O74" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P74" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q74" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:36">
-      <x:c r="B75" s="14" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C75" s="18" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D75" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E75" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O75" s="19" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P75" s="19" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="Q75" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
